--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -543,10 +543,10 @@
         <v>0.280285</v>
       </c>
       <c r="I2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J2">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>9.244427512113333</v>
+        <v>15.70622098470778</v>
       </c>
       <c r="R2">
-        <v>83.19984760902</v>
+        <v>141.35598886237</v>
       </c>
       <c r="S2">
-        <v>0.00104294727950169</v>
+        <v>0.001402045784589196</v>
       </c>
       <c r="T2">
-        <v>0.00104294727950169</v>
+        <v>0.001402045784589196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.280285</v>
       </c>
       <c r="I3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J3">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
         <v>15.22940092127722</v>
@@ -635,10 +635,10 @@
         <v>137.064608291495</v>
       </c>
       <c r="S3">
-        <v>0.001718166131810098</v>
+        <v>0.001359481531826468</v>
       </c>
       <c r="T3">
-        <v>0.001718166131810099</v>
+        <v>0.001359481531826468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.280285</v>
       </c>
       <c r="I4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J4">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>13.47916693790556</v>
+        <v>15.50849885201667</v>
       </c>
       <c r="R4">
-        <v>121.31250244115</v>
+        <v>139.57648966815</v>
       </c>
       <c r="S4">
-        <v>0.001520706443900058</v>
+        <v>0.001384395741149118</v>
       </c>
       <c r="T4">
-        <v>0.001520706443900059</v>
+        <v>0.001384395741149118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.280285</v>
       </c>
       <c r="I5">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="J5">
-        <v>0.004971127078137211</v>
+        <v>0.00469825789230973</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>6.109849252355557</v>
+        <v>6.187453410872778</v>
       </c>
       <c r="R5">
-        <v>54.98864327120001</v>
+        <v>55.687080697855</v>
       </c>
       <c r="S5">
-        <v>0.0006893072229253631</v>
+        <v>0.000552334834744949</v>
       </c>
       <c r="T5">
-        <v>0.0006893072229253633</v>
+        <v>0.000552334834744949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>42.867363</v>
       </c>
       <c r="I6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J6">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>1413.861711789604</v>
+        <v>2402.141664055107</v>
       </c>
       <c r="R6">
-        <v>12724.75540610643</v>
+        <v>21619.27497649596</v>
       </c>
       <c r="S6">
-        <v>0.1595104968880298</v>
+        <v>0.2144317590688223</v>
       </c>
       <c r="T6">
-        <v>0.1595104968880298</v>
+        <v>0.2144317590688223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>42.867363</v>
       </c>
       <c r="I7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J7">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>2329.215825195516</v>
@@ -883,10 +883,10 @@
         <v>20962.94242675964</v>
       </c>
       <c r="S7">
-        <v>0.2627798536011893</v>
+        <v>0.2079218949162505</v>
       </c>
       <c r="T7">
-        <v>0.2627798536011893</v>
+        <v>0.2079218949162505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>42.867363</v>
       </c>
       <c r="I8">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J8">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>2061.531448578397</v>
+        <v>2371.90163538713</v>
       </c>
       <c r="R8">
-        <v>18553.78303720557</v>
+        <v>21347.11471848417</v>
       </c>
       <c r="S8">
-        <v>0.2325799637765237</v>
+        <v>0.21173232521003</v>
       </c>
       <c r="T8">
-        <v>0.2325799637765237</v>
+        <v>0.21173232521003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>42.867363</v>
       </c>
       <c r="I9">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="J9">
-        <v>0.760294375288143</v>
+        <v>0.7185612021237531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>934.4528810889069</v>
+        <v>946.3218203238545</v>
       </c>
       <c r="R9">
-        <v>8410.075929800161</v>
+        <v>8516.896382914689</v>
       </c>
       <c r="S9">
-        <v>0.1054240610224003</v>
+        <v>0.08447522292865027</v>
       </c>
       <c r="T9">
-        <v>0.1054240610224003</v>
+        <v>0.08447522292865027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H10">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I10">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J10">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>436.517919147704</v>
+        <v>925.1403767191358</v>
       </c>
       <c r="R10">
-        <v>3928.661272329336</v>
+        <v>8326.263390472222</v>
       </c>
       <c r="S10">
-        <v>0.04924752513146812</v>
+        <v>0.08258442094984046</v>
       </c>
       <c r="T10">
-        <v>0.04924752513146814</v>
+        <v>0.08258442094984048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H11">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I11">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J11">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>719.1258075539074</v>
+        <v>897.0543403938552</v>
       </c>
       <c r="R11">
-        <v>6472.132267985166</v>
+        <v>8073.489063544697</v>
       </c>
       <c r="S11">
-        <v>0.08113107097492366</v>
+        <v>0.08007726732746254</v>
       </c>
       <c r="T11">
-        <v>0.08113107097492368</v>
+        <v>0.08007726732746254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H12">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I12">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J12">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>636.4805063233133</v>
+        <v>913.4939896918767</v>
       </c>
       <c r="R12">
-        <v>5728.32455690982</v>
+        <v>8221.445907226891</v>
       </c>
       <c r="S12">
-        <v>0.07180710883999411</v>
+        <v>0.08154478398986384</v>
       </c>
       <c r="T12">
-        <v>0.07180710883999412</v>
+        <v>0.08154478398986384</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.411646</v>
+        <v>5.503190333333333</v>
       </c>
       <c r="H13">
-        <v>13.234938</v>
+        <v>16.509571</v>
       </c>
       <c r="I13">
-        <v>0.2347344976337197</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="J13">
-        <v>0.2347344976337198</v>
+        <v>0.2767405399839373</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>288.5044723915734</v>
+        <v>364.4583241914348</v>
       </c>
       <c r="R13">
-        <v>2596.54025152416</v>
+        <v>3280.124917722913</v>
       </c>
       <c r="S13">
-        <v>0.03254879268733381</v>
+        <v>0.03253406771677044</v>
       </c>
       <c r="T13">
-        <v>0.03254879268733383</v>
+        <v>0.03253406771677044</v>
       </c>
     </row>
   </sheetData>
